--- a/CashFlow/ENTG_cashflow.xlsx
+++ b/CashFlow/ENTG_cashflow.xlsx
@@ -74,8 +74,8 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" bestFit="1" customWidth="1" width="28.6"/>
-    <col min="2" max="2" bestFit="1" customWidth="1" width="15.400000000000002"/>
-    <col min="3" max="3" bestFit="1" customWidth="1" width="15.400000000000002"/>
+    <col min="2" max="2" bestFit="1" customWidth="1" width="14.3"/>
+    <col min="3" max="3" bestFit="1" customWidth="1" width="14.3"/>
     <col min="4" max="4" bestFit="1" customWidth="1" width="14.3"/>
     <col min="5" max="5" bestFit="1" customWidth="1" width="14.3"/>
     <col min="6" max="6" bestFit="1" customWidth="1" width="14.3"/>
@@ -758,19 +758,19 @@
         </is>
       </c>
       <c r="B6" s="0" t="n">
-        <v>1346000000.0</v>
+        <v>-71904000.0</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>1288000000.0</v>
+        <v>-50772000.0</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>948335000.0</v>
+        <v>-69943000.0</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>608937000.0</v>
+        <v>-80425000.0</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>281777000.0</v>
+        <v>-37428000.0</v>
       </c>
       <c r="G6" s="0" t="n">
         <v>-21354000.0</v>
@@ -885,19 +885,19 @@
         </is>
       </c>
       <c r="B7" s="0" t="n">
-        <v>325000000.0</v>
+        <v>49591000.0</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>314000000.0</v>
+        <v>40162000.0</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>241264000.0</v>
+        <v>19340000.0</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>192060000.0</v>
+        <v>35703000.0</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>104372000.0</v>
+        <v>-15648000.0</v>
       </c>
       <c r="G7" s="0" t="n">
         <v>-22647000.0</v>
